--- a/biology/Zoologie/Cryptomys_hottentotus/Cryptomys_hottentotus.xlsx
+++ b/biology/Zoologie/Cryptomys_hottentotus/Cryptomys_hottentotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Rat-taupe africain ou  Rat-taupe hottentot (Cryptomys hottentotus) est une espèce de mammifères rongeurs de la famille des Bathyergidae[1],[2]. Ce rat-taupe vit dans des souterrains un peu partout au sud de l'Afrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rat-taupe africain ou  Rat-taupe hottentot (Cryptomys hottentotus) est une espèce de mammifères rongeurs de la famille des Bathyergidae,. Ce rat-taupe vit dans des souterrains un peu partout au sud de l'Afrique.
 L'espèce a été décrite pour la première fois en 1826 par le zoologiste français René Primevère Lesson (1794-1849).
 </t>
         </is>
@@ -512,13 +524,15 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (15 déc. 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (15 déc. 2012) :
 sous-espèce Cryptomys hottentotus hottentotus
 sous-espèce Cryptomys hottentotus natalensis
 sous-espèce Cryptomys hottentotus whytei
-Selon NCBI  (15 déc. 2012)[4] :
+Selon NCBI  (15 déc. 2012) :
 sous-espèce Cryptomys hottentotus hottentotus
 sous-espèce Cryptomys hottentotus mahali
 sous-espèce Cryptomys hottentotus natalensis
